--- a/output/20141109_cfd60a1_Chaperone.xlsx
+++ b/output/20141109_cfd60a1_Chaperone.xlsx
@@ -5778,7 +5778,7 @@
     <t>chaperone-a</t>
   </si>
   <si>
-    <t>unsafe2</t>
+    <t>unsafe*</t>
   </si>
   <si>
     <t>proxy-a</t>
